--- a/PgenPFC.xlsx
+++ b/PgenPFC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,162 +755,482 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9542938707390417</v>
+        <v>0.9763433060554775</v>
       </c>
       <c r="B5" t="n">
-        <v>4.146210286072285</v>
+        <v>4.17235233426774</v>
       </c>
       <c r="C5" t="n">
-        <v>3.137299844150767</v>
+        <v>3.163295003740824</v>
       </c>
       <c r="D5" t="n">
-        <v>4.123187507862347</v>
+        <v>4.145237965659369</v>
       </c>
       <c r="E5" t="n">
-        <v>4.323190326197146</v>
+        <v>4.345240139937399</v>
       </c>
       <c r="F5" t="n">
-        <v>3.646225534693964</v>
+        <v>3.672371681848651</v>
       </c>
       <c r="G5" t="n">
-        <v>3.137280121534979</v>
+        <v>3.163271032747652</v>
       </c>
       <c r="H5" t="n">
-        <v>4.123190408979039</v>
+        <v>4.145240107664425</v>
       </c>
       <c r="I5" t="n">
-        <v>4.123190411807024</v>
+        <v>4.145240110429614</v>
       </c>
       <c r="J5" t="n">
-        <v>4.146203822847513</v>
+        <v>1.136277455431059e-10</v>
       </c>
       <c r="K5" t="n">
-        <v>4.145208085369068</v>
+        <v>4.171052539680566</v>
       </c>
       <c r="L5" t="n">
-        <v>4.123186855801499</v>
+        <v>4.145237643090687</v>
       </c>
       <c r="M5" t="n">
-        <v>4.146223989084202</v>
+        <v>4.172387507099012</v>
       </c>
       <c r="N5" t="n">
-        <v>4.145244069733343</v>
+        <v>4.171094202059879</v>
       </c>
       <c r="O5" t="n">
-        <v>4.123190046265878</v>
+        <v>4.145238947437736</v>
       </c>
       <c r="P5" t="n">
-        <v>1.136983009701286e-10</v>
+        <v>4.145240416247805</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.14623767025543</v>
+        <v>4.172334208474294</v>
       </c>
       <c r="R5" t="n">
-        <v>4.123190428458605</v>
+        <v>4.145239022510654</v>
       </c>
       <c r="S5" t="n">
-        <v>4.146270362583835</v>
+        <v>4.172355691234046</v>
       </c>
       <c r="T5" t="n">
-        <v>1.827203087522724</v>
+        <v>1.849252357534633</v>
       </c>
       <c r="U5" t="n">
-        <v>4.146219293709891</v>
+        <v>4.172349231982271</v>
       </c>
       <c r="V5" t="n">
-        <v>4.144728990535152</v>
+        <v>4.171278879316786</v>
       </c>
       <c r="W5" t="n">
-        <v>4.123190609285045</v>
+        <v>4.145240198193789</v>
       </c>
       <c r="X5" t="n">
-        <v>4.323186862793704</v>
+        <v>4.34523775671928</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.146235414966696</v>
+        <v>4.172373000735294</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.144630732274425</v>
+        <v>4.171239867893885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0.9542938707390417</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.146210286072285</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.137299844150767</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.123187507862347</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.323190326197146</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.646225534693964</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.137280121534979</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.123190408979039</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.123190411807024</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.146203822847513</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.145208085369068</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.123186855801499</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.146223989084202</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.145244069733343</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.123190046265878</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.136983009701286e-10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.14623767025543</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.123190428458605</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.146270362583835</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.827203087522724</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.146219293709891</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.144728990535152</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.123190609285045</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.323186862793704</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.146235414966696</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.144630732274425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.9619704302603952</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>4.155291591967873</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3.146328257261806</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.1308677530839</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>4.330867914468024</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>3.655309037763953</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>3.146304154437203</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>4.130868727366346</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>4.130868807798844</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>4.155282885754055</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>4.154220491828098</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>4.130871387013765</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>4.155318382650398</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>4.154269619419662</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>4.130866880721434</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>4.130868656583878</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>1.154447689869086e-10</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R7" t="n">
         <v>4.130866845537127</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>4.155356728027197</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>1.834879296557797</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U7" t="n">
         <v>4.155298985876007</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>4.153671186168276</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>4.13086774987197</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X7" t="n">
         <v>4.330868491398538</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>4.155323381955787</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>4.153564730761441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9756120673946097</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.171483178020347</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.162474386048523</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.144512124276947</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.344512096813846</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.671502458617277</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.162453184859958</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.144509276144493</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1445091595079</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.171480369315975</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.170313235348925</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.144511798995765</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.171518855237297</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.17035379183313</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.144508111540166</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.144512766577139</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.171485655941551</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.144508051622005</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.171503087042826</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.848522485987073</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.137587937016815e-10</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4.170012418211009</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.144511975758267</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.344513493095879</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4.171517982593783</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4.169924976087252</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9617986275829158</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.155080848855177</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.146081526384537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.130691534744251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.330693014250381</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.655099362616791</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.146057296063297</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.130692872161747</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.130692742587205</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.155078326452798</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.153978355116047</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.130695722760674</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.155099827406901</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.154014226097575</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.130696512725283</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.130694475194741</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.155082253032031</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.130697168997843</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.155103669624364</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.834707663235786</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.15509390121244</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.173743272384339e-10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.130694067152702</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.33069011488636</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.155115481664185</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.146209144112379</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9734363864939027</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.16892994354464</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.159948488316685</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.142325955930608</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.342330178087594</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.668948164570307</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.15992609025721</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.142331844121553</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.14233242707494</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.168929275331163</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.1677929690533</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.142406858502394</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.168930631722525</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.167725201106869</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.142333007587159</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.142332441750356</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.168937014249722</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.142333075094863</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.16895864693884</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.846345169552353</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.168936398800919</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.167476965902662</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.152217048506701e-10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.342333178127858</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.168959930472181</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4.167393089969425</v>
       </c>
     </row>
   </sheetData>

--- a/PgenPFC.xlsx
+++ b/PgenPFC.xlsx
@@ -515,722 +515,722 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.973031770906628</v>
+        <v>0.9549231583926556</v>
       </c>
       <c r="B2" t="n">
-        <v>1.148541061287957e-10</v>
+        <v>4.146954564216907</v>
       </c>
       <c r="C2" t="n">
-        <v>3.158974341518853</v>
+        <v>4.123818272837185</v>
       </c>
       <c r="D2" t="n">
-        <v>4.141926738109308</v>
+        <v>4.323820113710309</v>
       </c>
       <c r="E2" t="n">
-        <v>4.341928144530815</v>
+        <v>1.141981052417208e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>3.668454412320679</v>
+        <v>3.145756782201441</v>
       </c>
       <c r="G2" t="n">
-        <v>3.158954131035545</v>
+        <v>3.12948324435633</v>
       </c>
       <c r="H2" t="n">
-        <v>4.141928289547704</v>
+        <v>4.123819982566302</v>
       </c>
       <c r="I2" t="n">
-        <v>4.141928219988697</v>
+        <v>4.123819982635985</v>
       </c>
       <c r="J2" t="n">
-        <v>4.168421378844096</v>
+        <v>4.146937095940402</v>
       </c>
       <c r="K2" t="n">
-        <v>4.167265547401995</v>
+        <v>4.145931666168576</v>
       </c>
       <c r="L2" t="n">
-        <v>4.141923220289896</v>
+        <v>4.123817845066196</v>
       </c>
       <c r="M2" t="n">
-        <v>4.168440967147947</v>
+        <v>4.145966373760952</v>
       </c>
       <c r="N2" t="n">
-        <v>4.16730436134759</v>
+        <v>4.146956515663209</v>
       </c>
       <c r="O2" t="n">
-        <v>4.141927748831744</v>
+        <v>4.123819166632503</v>
       </c>
       <c r="P2" t="n">
-        <v>4.14192904328969</v>
+        <v>4.123820389735888</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.168408850080173</v>
+        <v>4.14693228134317</v>
       </c>
       <c r="R2" t="n">
-        <v>4.141927833887512</v>
+        <v>4.123819228061796</v>
       </c>
       <c r="S2" t="n">
-        <v>4.168430470768569</v>
+        <v>4.146949657225422</v>
       </c>
       <c r="T2" t="n">
-        <v>1.845940651955388</v>
+        <v>1.827832201453394</v>
       </c>
       <c r="U2" t="n">
-        <v>4.168419217253085</v>
+        <v>4.146936649431257</v>
       </c>
       <c r="V2" t="n">
-        <v>4.167390115188944</v>
+        <v>4.146040298651993</v>
       </c>
       <c r="W2" t="n">
-        <v>4.141928246663689</v>
+        <v>4.123820084995719</v>
       </c>
       <c r="X2" t="n">
-        <v>4.341925932994577</v>
+        <v>4.323818026912236</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.16844119712601</v>
+        <v>4.146956018238924</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.167354091556434</v>
+        <v>4.146008014360651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9344501472868747</v>
+        <v>0.9730315459754816</v>
       </c>
       <c r="B3" t="n">
-        <v>4.122656195849594</v>
+        <v>1.148450804445352e-10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.598714774393292e-10</v>
+        <v>4.141927207304554</v>
       </c>
       <c r="D3" t="n">
-        <v>4.103345631977303</v>
+        <v>4.341929268018053</v>
       </c>
       <c r="E3" t="n">
-        <v>4.303347156060058</v>
+        <v>3.668453402282315</v>
       </c>
       <c r="F3" t="n">
-        <v>3.622668123396683</v>
+        <v>3.167097942298476</v>
       </c>
       <c r="G3" t="n">
-        <v>3.112577634450432</v>
+        <v>3.150828205419649</v>
       </c>
       <c r="H3" t="n">
-        <v>4.103347050801283</v>
+        <v>4.141929654987913</v>
       </c>
       <c r="I3" t="n">
-        <v>4.103347050950948</v>
+        <v>4.141929760653573</v>
       </c>
       <c r="J3" t="n">
-        <v>4.122646125430277</v>
+        <v>4.168417894642777</v>
       </c>
       <c r="K3" t="n">
-        <v>4.121765032260587</v>
+        <v>4.167265665943315</v>
       </c>
       <c r="L3" t="n">
-        <v>4.103345287607983</v>
+        <v>4.14192729995704</v>
       </c>
       <c r="M3" t="n">
-        <v>4.122662089593622</v>
+        <v>4.167306491199278</v>
       </c>
       <c r="N3" t="n">
-        <v>4.12179300258772</v>
+        <v>4.168443034240084</v>
       </c>
       <c r="O3" t="n">
-        <v>4.103346328174158</v>
+        <v>4.141927530587647</v>
       </c>
       <c r="P3" t="n">
-        <v>4.103347339073302</v>
+        <v>4.141929583797038</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.122641963970796</v>
+        <v>4.168409169919963</v>
       </c>
       <c r="R3" t="n">
-        <v>4.10334637923418</v>
+        <v>4.141927374102671</v>
       </c>
       <c r="S3" t="n">
-        <v>4.122655735834624</v>
+        <v>4.16843005598858</v>
       </c>
       <c r="T3" t="n">
-        <v>1.807359185115056</v>
+        <v>1.845940500022533</v>
       </c>
       <c r="U3" t="n">
-        <v>4.122645165782814</v>
+        <v>4.168417792200811</v>
       </c>
       <c r="V3" t="n">
-        <v>4.121843317964767</v>
+        <v>4.167389162395454</v>
       </c>
       <c r="W3" t="n">
-        <v>4.103347098267776</v>
+        <v>4.141929028416982</v>
       </c>
       <c r="X3" t="n">
-        <v>4.303345399957361</v>
+        <v>4.341927289415541</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.122661111525924</v>
+        <v>4.168441785668945</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.121810335133045</v>
+        <v>4.167352991260217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9549231535613808</v>
+        <v>0.9341538398674196</v>
       </c>
       <c r="B4" t="n">
-        <v>4.146954551494918</v>
+        <v>4.122304529327493</v>
       </c>
       <c r="C4" t="n">
-        <v>3.137628464432607</v>
+        <v>4.10304933155933</v>
       </c>
       <c r="D4" t="n">
-        <v>4.123818273229616</v>
+        <v>4.303050848412573</v>
       </c>
       <c r="E4" t="n">
-        <v>4.323820108364275</v>
+        <v>3.622316421310435</v>
       </c>
       <c r="F4" t="n">
-        <v>1.142194955556217e-10</v>
+        <v>3.120373799802234</v>
       </c>
       <c r="G4" t="n">
-        <v>3.137611605388033</v>
+        <v>1.673899360951868e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>4.123819980917057</v>
+        <v>4.10305074232755</v>
       </c>
       <c r="I4" t="n">
-        <v>4.123819981622466</v>
+        <v>4.103050742351136</v>
       </c>
       <c r="J4" t="n">
-        <v>4.146937096162588</v>
+        <v>4.122294480941918</v>
       </c>
       <c r="K4" t="n">
-        <v>4.145931667760915</v>
+        <v>4.121415796175044</v>
       </c>
       <c r="L4" t="n">
-        <v>4.123817854017913</v>
+        <v>4.103048988333459</v>
       </c>
       <c r="M4" t="n">
-        <v>4.146956510425828</v>
+        <v>4.121443683359018</v>
       </c>
       <c r="N4" t="n">
-        <v>4.145966367196755</v>
+        <v>4.122310398238911</v>
       </c>
       <c r="O4" t="n">
-        <v>4.123819168156145</v>
+        <v>4.103050026158065</v>
       </c>
       <c r="P4" t="n">
-        <v>4.123820383987698</v>
+        <v>4.103051030578571</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.146932281103028</v>
+        <v>4.12229033589899</v>
       </c>
       <c r="R4" t="n">
-        <v>4.123819229114369</v>
+        <v>4.103050077113541</v>
       </c>
       <c r="S4" t="n">
-        <v>4.146949653156468</v>
+        <v>4.122304061908742</v>
       </c>
       <c r="T4" t="n">
-        <v>1.827832201559234</v>
+        <v>1.807062877908466</v>
       </c>
       <c r="U4" t="n">
-        <v>4.146936651614364</v>
+        <v>4.122293525004732</v>
       </c>
       <c r="V4" t="n">
-        <v>4.146040298107796</v>
+        <v>4.121493807673865</v>
       </c>
       <c r="W4" t="n">
-        <v>4.123820080892342</v>
+        <v>4.103050791807441</v>
       </c>
       <c r="X4" t="n">
-        <v>4.323818033967147</v>
+        <v>4.30304910119763</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.14695601283587</v>
+        <v>4.122309422915444</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.146008010287987</v>
+        <v>4.121460893027108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9763433060554775</v>
+        <v>0.9542942647665887</v>
       </c>
       <c r="B5" t="n">
-        <v>4.17235233426774</v>
+        <v>4.146211392830427</v>
       </c>
       <c r="C5" t="n">
-        <v>3.163295003740824</v>
+        <v>4.123187580948112</v>
       </c>
       <c r="D5" t="n">
-        <v>4.145237965659369</v>
+        <v>4.323190289138027</v>
       </c>
       <c r="E5" t="n">
-        <v>4.345240139937399</v>
+        <v>3.646225926552776</v>
       </c>
       <c r="F5" t="n">
-        <v>3.672371681848651</v>
+        <v>3.145425298014167</v>
       </c>
       <c r="G5" t="n">
-        <v>3.163271032747652</v>
+        <v>3.129154271060136</v>
       </c>
       <c r="H5" t="n">
-        <v>4.145240107664425</v>
+        <v>4.123190104469349</v>
       </c>
       <c r="I5" t="n">
-        <v>4.145240110429614</v>
+        <v>4.123190125618018</v>
       </c>
       <c r="J5" t="n">
-        <v>1.136277455431059e-10</v>
+        <v>4.146204297576729</v>
       </c>
       <c r="K5" t="n">
-        <v>4.171052539680566</v>
+        <v>4.145207932058895</v>
       </c>
       <c r="L5" t="n">
-        <v>4.145237643090687</v>
+        <v>4.123186919243944</v>
       </c>
       <c r="M5" t="n">
-        <v>4.172387507099012</v>
+        <v>4.145244291327234</v>
       </c>
       <c r="N5" t="n">
-        <v>4.171094202059879</v>
+        <v>4.146224558048556</v>
       </c>
       <c r="O5" t="n">
-        <v>4.145238947437736</v>
+        <v>4.123187995785709</v>
       </c>
       <c r="P5" t="n">
-        <v>4.145240416247805</v>
+        <v>1.136988184061515e-10</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.172334208474294</v>
+        <v>4.146238146088274</v>
       </c>
       <c r="R5" t="n">
-        <v>4.145239022510654</v>
+        <v>4.123188417836258</v>
       </c>
       <c r="S5" t="n">
-        <v>4.172355691234046</v>
+        <v>4.146269180598026</v>
       </c>
       <c r="T5" t="n">
-        <v>1.849252357534633</v>
+        <v>1.827202882927135</v>
       </c>
       <c r="U5" t="n">
-        <v>4.172349231982271</v>
+        <v>4.14622017705434</v>
       </c>
       <c r="V5" t="n">
-        <v>4.171278879316786</v>
+        <v>4.144728649030693</v>
       </c>
       <c r="W5" t="n">
-        <v>4.145240198193789</v>
+        <v>4.123190195637848</v>
       </c>
       <c r="X5" t="n">
-        <v>4.34523775671928</v>
+        <v>4.323186804610726</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.172373000735294</v>
+        <v>4.146235778586429</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.171239867893885</v>
+        <v>4.144630260673995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9542938707390417</v>
+        <v>0.9619718448568357</v>
       </c>
       <c r="B6" t="n">
-        <v>4.146210286072285</v>
+        <v>4.155291847645686</v>
       </c>
       <c r="C6" t="n">
-        <v>3.137299844150767</v>
+        <v>4.130865870374332</v>
       </c>
       <c r="D6" t="n">
-        <v>4.123187507862347</v>
+        <v>4.330870098291182</v>
       </c>
       <c r="E6" t="n">
-        <v>4.323190326197146</v>
+        <v>3.655308477029805</v>
       </c>
       <c r="F6" t="n">
-        <v>3.646225534693964</v>
+        <v>3.154451237760849</v>
       </c>
       <c r="G6" t="n">
-        <v>3.137280121534979</v>
+        <v>3.138182484008912</v>
       </c>
       <c r="H6" t="n">
-        <v>4.123190408979039</v>
+        <v>4.130869905871247</v>
       </c>
       <c r="I6" t="n">
-        <v>4.123190411807024</v>
+        <v>4.130869935728812</v>
       </c>
       <c r="J6" t="n">
-        <v>4.146203822847513</v>
+        <v>4.155284668271569</v>
       </c>
       <c r="K6" t="n">
-        <v>4.145208085369068</v>
+        <v>4.154224322027215</v>
       </c>
       <c r="L6" t="n">
-        <v>4.123186855801499</v>
+        <v>4.130865896988982</v>
       </c>
       <c r="M6" t="n">
-        <v>4.146223989084202</v>
+        <v>4.154263909796488</v>
       </c>
       <c r="N6" t="n">
-        <v>4.145244069733343</v>
+        <v>4.155307414051658</v>
       </c>
       <c r="O6" t="n">
-        <v>4.123190046265878</v>
+        <v>4.130866357722862</v>
       </c>
       <c r="P6" t="n">
-        <v>1.136983009701286e-10</v>
+        <v>4.130872830288262</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.14623767025543</v>
+        <v>1.154423763659743e-10</v>
       </c>
       <c r="R6" t="n">
-        <v>4.123190428458605</v>
+        <v>4.130866617230933</v>
       </c>
       <c r="S6" t="n">
-        <v>4.146270362583835</v>
+        <v>4.155356439921029</v>
       </c>
       <c r="T6" t="n">
-        <v>1.827203087522724</v>
+        <v>1.834881368099936</v>
       </c>
       <c r="U6" t="n">
-        <v>4.146219293709891</v>
+        <v>4.155301366435312</v>
       </c>
       <c r="V6" t="n">
-        <v>4.144728990535152</v>
+        <v>4.15367318147446</v>
       </c>
       <c r="W6" t="n">
-        <v>4.123190609285045</v>
+        <v>4.130870318502199</v>
       </c>
       <c r="X6" t="n">
-        <v>4.323186862793704</v>
+        <v>4.330865505560131</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.146235414966696</v>
+        <v>4.155319689750658</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.144630732274425</v>
+        <v>4.153565431213212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9619704302603952</v>
+        <v>0.9763434544035373</v>
       </c>
       <c r="B7" t="n">
-        <v>4.155291591967873</v>
+        <v>4.172352140227826</v>
       </c>
       <c r="C7" t="n">
-        <v>3.146328257261806</v>
+        <v>4.145238090747168</v>
       </c>
       <c r="D7" t="n">
-        <v>4.1308677530839</v>
+        <v>4.345240305479671</v>
       </c>
       <c r="E7" t="n">
-        <v>4.330867914468024</v>
+        <v>3.672371533583695</v>
       </c>
       <c r="F7" t="n">
-        <v>3.655309037763953</v>
+        <v>3.171415765872656</v>
       </c>
       <c r="G7" t="n">
-        <v>3.146304154437203</v>
+        <v>3.155149945858375</v>
       </c>
       <c r="H7" t="n">
-        <v>4.130868727366346</v>
+        <v>4.145240227744374</v>
       </c>
       <c r="I7" t="n">
-        <v>4.130868807798844</v>
+        <v>4.145240228761221</v>
       </c>
       <c r="J7" t="n">
-        <v>4.155282885754055</v>
+        <v>1.135811047525667e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>4.154220491828098</v>
+        <v>4.171052390677607</v>
       </c>
       <c r="L7" t="n">
-        <v>4.130871387013765</v>
+        <v>4.145237723292178</v>
       </c>
       <c r="M7" t="n">
-        <v>4.155318382650398</v>
+        <v>4.171094059876106</v>
       </c>
       <c r="N7" t="n">
-        <v>4.154269619419662</v>
+        <v>4.172387336840374</v>
       </c>
       <c r="O7" t="n">
-        <v>4.130866880721434</v>
+        <v>4.145239230248907</v>
       </c>
       <c r="P7" t="n">
-        <v>4.130868656583878</v>
+        <v>4.145240684058648</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.154447689869086e-10</v>
+        <v>4.17233432812376</v>
       </c>
       <c r="R7" t="n">
-        <v>4.130866845537127</v>
+        <v>4.145239304266809</v>
       </c>
       <c r="S7" t="n">
-        <v>4.155356728027197</v>
+        <v>4.172355663763506</v>
       </c>
       <c r="T7" t="n">
-        <v>1.834879296557797</v>
+        <v>1.849252502953458</v>
       </c>
       <c r="U7" t="n">
-        <v>4.155298985876007</v>
+        <v>4.172349046929479</v>
       </c>
       <c r="V7" t="n">
-        <v>4.153671186168276</v>
+        <v>4.171278731448444</v>
       </c>
       <c r="W7" t="n">
-        <v>4.13086774987197</v>
+        <v>4.145240343710626</v>
       </c>
       <c r="X7" t="n">
-        <v>4.330868491398538</v>
+        <v>4.345237904146011</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.155323381955787</v>
+        <v>4.172372866294469</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.153564730761441</v>
+        <v>4.171239755178766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9756120673946097</v>
+        <v>0.9734353545031873</v>
       </c>
       <c r="B8" t="n">
-        <v>4.171483178020347</v>
+        <v>4.168931602417058</v>
       </c>
       <c r="C8" t="n">
-        <v>3.162474386048523</v>
+        <v>4.142338743430319</v>
       </c>
       <c r="D8" t="n">
-        <v>4.144512124276947</v>
+        <v>4.342329788435418</v>
       </c>
       <c r="E8" t="n">
-        <v>4.344512096813846</v>
+        <v>3.668951246393378</v>
       </c>
       <c r="F8" t="n">
-        <v>3.671502458617277</v>
+        <v>3.168069268174195</v>
       </c>
       <c r="G8" t="n">
-        <v>3.162453184859958</v>
+        <v>3.15179389737984</v>
       </c>
       <c r="H8" t="n">
-        <v>4.144509276144493</v>
+        <v>4.1423332135894</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1445091595079</v>
+        <v>4.142333285948658</v>
       </c>
       <c r="J8" t="n">
-        <v>4.171480369315975</v>
+        <v>4.168923391241154</v>
       </c>
       <c r="K8" t="n">
-        <v>4.170313235348925</v>
+        <v>4.167781810369442</v>
       </c>
       <c r="L8" t="n">
-        <v>4.144511798995765</v>
+        <v>4.142387779725819</v>
       </c>
       <c r="M8" t="n">
-        <v>4.171518855237297</v>
+        <v>4.167821865040773</v>
       </c>
       <c r="N8" t="n">
-        <v>4.17035379183313</v>
+        <v>4.168937452850734</v>
       </c>
       <c r="O8" t="n">
-        <v>4.144508111540166</v>
+        <v>4.142332410451495</v>
       </c>
       <c r="P8" t="n">
-        <v>4.144512766577139</v>
+        <v>4.142331350269415</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.171485655941551</v>
+        <v>4.168935720537882</v>
       </c>
       <c r="R8" t="n">
-        <v>4.144508051622005</v>
+        <v>4.142332364792014</v>
       </c>
       <c r="S8" t="n">
-        <v>4.171503087042826</v>
+        <v>4.168956247571866</v>
       </c>
       <c r="T8" t="n">
-        <v>1.848522485987073</v>
+        <v>1.846346762043654</v>
       </c>
       <c r="U8" t="n">
-        <v>1.137587937016815e-10</v>
+        <v>4.168941016862986</v>
       </c>
       <c r="V8" t="n">
-        <v>4.170012418211009</v>
+        <v>4.16747841998827</v>
       </c>
       <c r="W8" t="n">
-        <v>4.144511975758267</v>
+        <v>1.152501197639255e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>4.344513493095879</v>
+        <v>4.342309675986567</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.171517982593783</v>
+        <v>4.16894190642066</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.169924976087252</v>
+        <v>4.16739593405977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9617986275829158</v>
+        <v>0.9756146422908966</v>
       </c>
       <c r="B9" t="n">
-        <v>4.155080848855177</v>
+        <v>4.171484202669713</v>
       </c>
       <c r="C9" t="n">
-        <v>3.146081526384537</v>
+        <v>4.144509266828624</v>
       </c>
       <c r="D9" t="n">
-        <v>4.130691534744251</v>
+        <v>4.344511450678346</v>
       </c>
       <c r="E9" t="n">
-        <v>4.330693014250381</v>
+        <v>3.671502821253331</v>
       </c>
       <c r="F9" t="n">
-        <v>3.655099362616791</v>
+        <v>3.17059901352739</v>
       </c>
       <c r="G9" t="n">
-        <v>3.146057296063297</v>
+        <v>3.15433350230462</v>
       </c>
       <c r="H9" t="n">
-        <v>4.130692872161747</v>
+        <v>4.144511400331565</v>
       </c>
       <c r="I9" t="n">
-        <v>4.130692742587205</v>
+        <v>4.144511425429336</v>
       </c>
       <c r="J9" t="n">
-        <v>4.155078326452798</v>
+        <v>4.171480591650955</v>
       </c>
       <c r="K9" t="n">
-        <v>4.153978355116047</v>
+        <v>4.170312096770518</v>
       </c>
       <c r="L9" t="n">
-        <v>4.130695722760674</v>
+        <v>4.144508826593743</v>
       </c>
       <c r="M9" t="n">
-        <v>4.155099827406901</v>
+        <v>4.170353631552908</v>
       </c>
       <c r="N9" t="n">
-        <v>4.154014226097575</v>
+        <v>4.171504778462805</v>
       </c>
       <c r="O9" t="n">
-        <v>4.130696512725283</v>
+        <v>4.144510480002555</v>
       </c>
       <c r="P9" t="n">
-        <v>4.130694475194741</v>
+        <v>4.14451191526495</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.155082253032031</v>
+        <v>4.171485806564337</v>
       </c>
       <c r="R9" t="n">
-        <v>4.130697168997843</v>
+        <v>4.144510552239029</v>
       </c>
       <c r="S9" t="n">
-        <v>4.155103669624364</v>
+        <v>4.171505486150196</v>
       </c>
       <c r="T9" t="n">
-        <v>1.834707663235786</v>
+        <v>1.848523685369574</v>
       </c>
       <c r="U9" t="n">
-        <v>4.15509390121244</v>
+        <v>1.137690156241416e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>1.173743272384339e-10</v>
+        <v>4.170013828392158</v>
       </c>
       <c r="W9" t="n">
-        <v>4.130694067152702</v>
+        <v>4.144511566864561</v>
       </c>
       <c r="X9" t="n">
-        <v>4.33069011488636</v>
+        <v>4.344509119690679</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.155115481664185</v>
+        <v>4.171516171775274</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.146209144112379</v>
+        <v>4.169930433648958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9734363864939027</v>
+        <v>0.9617971371756225</v>
       </c>
       <c r="B10" t="n">
-        <v>4.16892994354464</v>
+        <v>4.155081963923823</v>
       </c>
       <c r="C10" t="n">
-        <v>3.159948488316685</v>
+        <v>4.130688661335824</v>
       </c>
       <c r="D10" t="n">
-        <v>4.142325955930608</v>
+        <v>4.330694545002541</v>
       </c>
       <c r="E10" t="n">
-        <v>4.342330178087594</v>
+        <v>3.655098586091245</v>
       </c>
       <c r="F10" t="n">
-        <v>3.668948164570307</v>
+        <v>3.154205228580847</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15992609025721</v>
+        <v>3.137936586903286</v>
       </c>
       <c r="H10" t="n">
-        <v>4.142331844121553</v>
+        <v>4.130695256364958</v>
       </c>
       <c r="I10" t="n">
-        <v>4.14233242707494</v>
+        <v>4.130695344223811</v>
       </c>
       <c r="J10" t="n">
-        <v>4.168929275331163</v>
+        <v>4.155078206363668</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1677929690533</v>
+        <v>4.153981465264732</v>
       </c>
       <c r="L10" t="n">
-        <v>4.142406858502394</v>
+        <v>4.130684287158413</v>
       </c>
       <c r="M10" t="n">
-        <v>4.168930631722525</v>
+        <v>4.154014241802042</v>
       </c>
       <c r="N10" t="n">
-        <v>4.167725201106869</v>
+        <v>4.155096426045997</v>
       </c>
       <c r="O10" t="n">
-        <v>4.142333007587159</v>
+        <v>4.130693656383476</v>
       </c>
       <c r="P10" t="n">
-        <v>4.142332441750356</v>
+        <v>4.130697071754353</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.168937014249722</v>
+        <v>4.155085489754995</v>
       </c>
       <c r="R10" t="n">
-        <v>4.142333075094863</v>
+        <v>4.130694137328236</v>
       </c>
       <c r="S10" t="n">
-        <v>4.16895864693884</v>
+        <v>4.15510071008505</v>
       </c>
       <c r="T10" t="n">
-        <v>1.846345169552353</v>
+        <v>1.834708019108211</v>
       </c>
       <c r="U10" t="n">
-        <v>4.168936398800919</v>
+        <v>4.155095868262694</v>
       </c>
       <c r="V10" t="n">
-        <v>4.167476965902662</v>
+        <v>1.173745587289411e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.152217048506701e-10</v>
+        <v>4.130696153382686</v>
       </c>
       <c r="X10" t="n">
-        <v>4.342333178127858</v>
+        <v>4.330687637332415</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.168959930472181</v>
+        <v>4.155114460503119</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.167393089969425</v>
+        <v>4.146207927962756</v>
       </c>
     </row>
   </sheetData>
